--- a/sputnik/personal/ee/259ee.xlsx
+++ b/sputnik/personal/ee/259ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 15.02.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 22.03.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t>Показания на день оплаты</t>
   </si>
   <si>
@@ -38,21 +35,34 @@
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Т1</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00&quot; ₽&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -118,16 +128,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="8"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -135,10 +145,10 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="8"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -148,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -163,37 +173,22 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -501,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -515,287 +510,145 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>43337</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>43274</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>7652</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="2">
+        <v>7852</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>43309</v>
+        <v>43646</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>7752</v>
+        <v>8102</v>
       </c>
       <c r="D3" s="2">
         <f>C3-C2</f>
-        <v>100</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="6">
+        <v>250</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="8">
         <f>D3*E3</f>
-        <v>450</v>
+        <v>1142.5</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1142.5</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1142.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>43337</v>
+        <v>43731</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>7852</v>
+        <v>8302</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C3</f>
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
+        <v>200</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="8">
         <f>D4*E4</f>
-        <v>450</v>
+        <v>898</v>
+      </c>
+      <c r="G4" s="11">
+        <v>898</v>
+      </c>
+      <c r="H4" s="11">
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>43646</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8102</v>
-      </c>
-      <c r="D5" s="2">
-        <f>C5-C4</f>
-        <v>250</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>1142.5</v>
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11">
+        <f>SUM(G2:G4)</f>
+        <v>2040.5</v>
+      </c>
+      <c r="H5" s="11">
+        <f>SUM(H2:H4)</f>
+        <v>2040.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>43731</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8302</v>
-      </c>
-      <c r="D6" s="2">
-        <f>C6-C5</f>
-        <v>200</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31527777777777777" right="0.31527777777777777" top="0.74791666666666667" bottom="0.74791666666666667" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/sputnik/personal/ee/259ee.xlsx
+++ b/sputnik/personal/ee/259ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 22.03.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.09.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.08.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -615,21 +615,31 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
+      <c r="A5" s="5">
+        <v>44089</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8602</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5-C4</f>
+        <v>300</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F5" s="8">
+        <f>D5*E5</f>
+        <v>1413</v>
       </c>
       <c r="G5" s="11">
-        <f>SUM(G2:G4)</f>
-        <v>2040.5</v>
+        <v>1413</v>
       </c>
       <c r="H5" s="11">
-        <f>SUM(H2:H4)</f>
-        <v>2040.5</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,10 +647,28 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(G2:G5)</f>
+        <v>3453.5</v>
+      </c>
+      <c r="H6" s="11">
+        <f>SUM(H2:H5)</f>
+        <v>3453.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/259ee.xlsx
+++ b/sputnik/personal/ee/259ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.09.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.08.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,21 +643,31 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
+      <c r="A6" s="5">
+        <v>44377</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9069</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-C5</f>
+        <v>467</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
+        <f>D6*E6</f>
+        <v>2199.5700000000002</v>
       </c>
       <c r="G6" s="11">
-        <f>SUM(G2:G5)</f>
-        <v>3453.5</v>
+        <v>2199.5700000000002</v>
       </c>
       <c r="H6" s="11">
-        <f>SUM(H2:H5)</f>
-        <v>3453.5</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,10 +675,28 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11">
+        <f>SUM(G2:G6)</f>
+        <v>5653.07</v>
+      </c>
+      <c r="H7" s="11">
+        <f>SUM(H2:H6)</f>
+        <v>5453.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/259ee.xlsx
+++ b/sputnik/personal/ee/259ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\31.10.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Т1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>День/ ночь</t>
@@ -499,7 +496,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -521,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -533,13 +530,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,6 +661,7 @@
         <v>2199.5700000000002</v>
       </c>
       <c r="G6" s="11">
+        <f>PRODUCT(D6,E6)</f>
         <v>2199.5700000000002</v>
       </c>
       <c r="H6" s="11">
@@ -677,7 +675,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(G2:G6)</f>
@@ -696,8 +694,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
-        <v>5</v>
+      <c r="H8" s="11">
+        <f>SUM(H7,-G7)</f>
+        <v>-199.56999999999971</v>
       </c>
     </row>
   </sheetData>
